--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Nodal</t>
   </si>
   <si>
     <t>Acvr2b</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.758718977613569</v>
+        <v>0.8014976666666667</v>
       </c>
       <c r="H2">
-        <v>0.758718977613569</v>
+        <v>2.404493</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6408639441485913</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6645820279581311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.95177621172252</v>
+        <v>2.021791</v>
       </c>
       <c r="N2">
-        <v>1.95177621172252</v>
+        <v>6.065372999999999</v>
       </c>
       <c r="O2">
-        <v>0.3885541263000972</v>
+        <v>0.3781620571349336</v>
       </c>
       <c r="P2">
-        <v>0.3885541263000972</v>
+        <v>0.426545054769166</v>
       </c>
       <c r="Q2">
-        <v>1.480849651888595</v>
+        <v>1.620460768987667</v>
       </c>
       <c r="R2">
-        <v>1.480849651888595</v>
+        <v>14.584146920889</v>
       </c>
       <c r="S2">
-        <v>0.3885541263000972</v>
+        <v>0.2423504274628385</v>
       </c>
       <c r="T2">
-        <v>0.3885541263000972</v>
+        <v>0.2834741775140045</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.758718977613569</v>
+        <v>0.8014976666666667</v>
       </c>
       <c r="H3">
-        <v>0.758718977613569</v>
+        <v>2.404493</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6408639441485913</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6645820279581311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.252672765106433</v>
+        <v>0.267999</v>
       </c>
       <c r="N3">
-        <v>0.252672765106433</v>
+        <v>0.803997</v>
       </c>
       <c r="O3">
-        <v>0.05030138439852928</v>
+        <v>0.05012736388187754</v>
       </c>
       <c r="P3">
-        <v>0.05030138439852928</v>
+        <v>0.05654078395495961</v>
       </c>
       <c r="Q3">
-        <v>0.1917076220123463</v>
+        <v>0.214800573169</v>
       </c>
       <c r="R3">
-        <v>0.1917076220123463</v>
+        <v>1.933205158521</v>
       </c>
       <c r="S3">
-        <v>0.05030138439852928</v>
+        <v>0.03212482012711168</v>
       </c>
       <c r="T3">
-        <v>0.05030138439852928</v>
+        <v>0.03757598886312962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.758718977613569</v>
+        <v>0.8014976666666667</v>
       </c>
       <c r="H4">
-        <v>0.758718977613569</v>
+        <v>2.404493</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6408639441485913</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6645820279581311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.446433023889388</v>
+        <v>0.6105999999999999</v>
       </c>
       <c r="N4">
-        <v>0.446433023889388</v>
+        <v>1.8318</v>
       </c>
       <c r="O4">
-        <v>0.08887463250500591</v>
+        <v>0.1142085171447447</v>
       </c>
       <c r="P4">
-        <v>0.08887463250500591</v>
+        <v>0.1288206399385756</v>
       </c>
       <c r="Q4">
-        <v>0.3387172074582905</v>
+        <v>0.4893944752666666</v>
       </c>
       <c r="R4">
-        <v>0.3387172074582905</v>
+        <v>4.404550277399999</v>
       </c>
       <c r="S4">
-        <v>0.08887463250500591</v>
+        <v>0.07319212075274306</v>
       </c>
       <c r="T4">
-        <v>0.08887463250500591</v>
+        <v>0.08561188213324283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.758718977613569</v>
+        <v>0.8014976666666667</v>
       </c>
       <c r="H5">
-        <v>0.758718977613569</v>
+        <v>2.404493</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6408639441485913</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6645820279581311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.568562434381183</v>
+        <v>0.6266583333333333</v>
       </c>
       <c r="N5">
-        <v>0.568562434381183</v>
+        <v>1.879975</v>
       </c>
       <c r="O5">
-        <v>0.113187812522353</v>
+        <v>0.1172121175997333</v>
       </c>
       <c r="P5">
-        <v>0.113187812522353</v>
+        <v>0.1322085285339687</v>
       </c>
       <c r="Q5">
-        <v>0.4313791089231731</v>
+        <v>0.5022651919638889</v>
       </c>
       <c r="R5">
-        <v>0.4313791089231731</v>
+        <v>4.520386727675</v>
       </c>
       <c r="S5">
-        <v>0.113187812522353</v>
+        <v>0.07511701998697357</v>
       </c>
       <c r="T5">
-        <v>0.113187812522353</v>
+        <v>0.08786341200646534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8014976666666667</v>
+      </c>
+      <c r="H6">
+        <v>2.404493</v>
+      </c>
+      <c r="I6">
+        <v>0.6408639441485913</v>
+      </c>
+      <c r="J6">
+        <v>0.6645820279581311</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.819313</v>
+      </c>
+      <c r="N6">
+        <v>3.638626</v>
+      </c>
+      <c r="O6">
+        <v>0.3402899442387109</v>
+      </c>
+      <c r="P6">
+        <v>0.2558849928033299</v>
+      </c>
+      <c r="Q6">
+        <v>1.458175124436333</v>
+      </c>
+      <c r="R6">
+        <v>8.749050746618</v>
+      </c>
+      <c r="S6">
+        <v>0.2180795558189245</v>
+      </c>
+      <c r="T6">
+        <v>0.1700565674412888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3152516666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.9457549999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.2520698872894415</v>
+      </c>
+      <c r="J7">
+        <v>0.2613988794525675</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.021791</v>
+      </c>
+      <c r="N7">
+        <v>6.065372999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.3781620571349336</v>
+      </c>
+      <c r="P7">
+        <v>0.426545054769166</v>
+      </c>
+      <c r="Q7">
+        <v>0.6373729824016666</v>
+      </c>
+      <c r="R7">
+        <v>5.736356841614999</v>
+      </c>
+      <c r="S7">
+        <v>0.09532326711914604</v>
+      </c>
+      <c r="T7">
+        <v>0.111498399352694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3152516666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.9457549999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.2520698872894415</v>
+      </c>
+      <c r="J8">
+        <v>0.2613988794525675</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.267999</v>
+      </c>
+      <c r="N8">
+        <v>0.803997</v>
+      </c>
+      <c r="O8">
+        <v>0.05012736388187754</v>
+      </c>
+      <c r="P8">
+        <v>0.05654078395495961</v>
+      </c>
+      <c r="Q8">
+        <v>0.08448713141499999</v>
+      </c>
+      <c r="R8">
+        <v>0.7603841827349999</v>
+      </c>
+      <c r="S8">
+        <v>0.01263559896382169</v>
+      </c>
+      <c r="T8">
+        <v>0.01477969756919615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3152516666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.9457549999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.2520698872894415</v>
+      </c>
+      <c r="J9">
+        <v>0.2613988794525675</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6105999999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.8318</v>
+      </c>
+      <c r="O9">
+        <v>0.1142085171447447</v>
+      </c>
+      <c r="P9">
+        <v>0.1288206399385756</v>
+      </c>
+      <c r="Q9">
+        <v>0.1924926676666666</v>
+      </c>
+      <c r="R9">
+        <v>1.732434009</v>
+      </c>
+      <c r="S9">
+        <v>0.02878852804417003</v>
+      </c>
+      <c r="T9">
+        <v>0.03367357093030633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3152516666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.9457549999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.2520698872894415</v>
+      </c>
+      <c r="J10">
+        <v>0.2613988794525675</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6266583333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.879975</v>
+      </c>
+      <c r="O10">
+        <v>0.1172121175997333</v>
+      </c>
+      <c r="P10">
+        <v>0.1322085285339687</v>
+      </c>
+      <c r="Q10">
+        <v>0.1975550840138889</v>
+      </c>
+      <c r="R10">
+        <v>1.777995756125</v>
+      </c>
+      <c r="S10">
+        <v>0.02954564527232152</v>
+      </c>
+      <c r="T10">
+        <v>0.0345591612128522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3152516666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.9457549999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.2520698872894415</v>
+      </c>
+      <c r="J11">
+        <v>0.2613988794525675</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.819313</v>
+      </c>
+      <c r="N11">
+        <v>3.638626</v>
+      </c>
+      <c r="O11">
+        <v>0.3402899442387109</v>
+      </c>
+      <c r="P11">
+        <v>0.2558849928033299</v>
+      </c>
+      <c r="Q11">
+        <v>0.5735414554383333</v>
+      </c>
+      <c r="R11">
+        <v>3.44124873263</v>
+      </c>
+      <c r="S11">
+        <v>0.08577684788998217</v>
+      </c>
+      <c r="T11">
+        <v>0.06688805038751873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.1339025</v>
+      </c>
+      <c r="H12">
+        <v>0.267805</v>
+      </c>
+      <c r="I12">
+        <v>0.1070661685619672</v>
+      </c>
+      <c r="J12">
+        <v>0.07401909258930149</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.021791</v>
+      </c>
+      <c r="N12">
+        <v>6.065372999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.3781620571349336</v>
+      </c>
+      <c r="P12">
+        <v>0.426545054769166</v>
+      </c>
+      <c r="Q12">
+        <v>0.2707228693775</v>
+      </c>
+      <c r="R12">
+        <v>1.624337216265</v>
+      </c>
+      <c r="S12">
+        <v>0.04048836255294908</v>
+      </c>
+      <c r="T12">
+        <v>0.03157247790246757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.1339025</v>
+      </c>
+      <c r="H13">
+        <v>0.267805</v>
+      </c>
+      <c r="I13">
+        <v>0.1070661685619672</v>
+      </c>
+      <c r="J13">
+        <v>0.07401909258930149</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.267999</v>
+      </c>
+      <c r="N13">
+        <v>0.803997</v>
+      </c>
+      <c r="O13">
+        <v>0.05012736388187754</v>
+      </c>
+      <c r="P13">
+        <v>0.05654078395495961</v>
+      </c>
+      <c r="Q13">
+        <v>0.0358857360975</v>
+      </c>
+      <c r="R13">
+        <v>0.215314416585</v>
+      </c>
+      <c r="S13">
+        <v>0.005366944790944169</v>
+      </c>
+      <c r="T13">
+        <v>0.004185097522633847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.1339025</v>
+      </c>
+      <c r="H14">
+        <v>0.267805</v>
+      </c>
+      <c r="I14">
+        <v>0.1070661685619672</v>
+      </c>
+      <c r="J14">
+        <v>0.07401909258930149</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6105999999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.8318</v>
+      </c>
+      <c r="O14">
+        <v>0.1142085171447447</v>
+      </c>
+      <c r="P14">
+        <v>0.1288206399385756</v>
+      </c>
+      <c r="Q14">
+        <v>0.08176086649999999</v>
+      </c>
+      <c r="R14">
+        <v>0.490565199</v>
+      </c>
+      <c r="S14">
+        <v>0.01222786834783155</v>
+      </c>
+      <c r="T14">
+        <v>0.0095351868750265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.758718977613569</v>
-      </c>
-      <c r="H6">
-        <v>0.758718977613569</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.80373272250214</v>
-      </c>
-      <c r="N6">
-        <v>1.80373272250214</v>
-      </c>
-      <c r="O6">
-        <v>0.3590820442740147</v>
-      </c>
-      <c r="P6">
-        <v>0.3590820442740147</v>
-      </c>
-      <c r="Q6">
-        <v>1.368526247104963</v>
-      </c>
-      <c r="R6">
-        <v>1.368526247104963</v>
-      </c>
-      <c r="S6">
-        <v>0.3590820442740147</v>
-      </c>
-      <c r="T6">
-        <v>0.3590820442740147</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.1339025</v>
+      </c>
+      <c r="H15">
+        <v>0.267805</v>
+      </c>
+      <c r="I15">
+        <v>0.1070661685619672</v>
+      </c>
+      <c r="J15">
+        <v>0.07401909258930149</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6266583333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.879975</v>
+      </c>
+      <c r="O15">
+        <v>0.1172121175997333</v>
+      </c>
+      <c r="P15">
+        <v>0.1322085285339687</v>
+      </c>
+      <c r="Q15">
+        <v>0.08391111747916667</v>
+      </c>
+      <c r="R15">
+        <v>0.503466704875</v>
+      </c>
+      <c r="S15">
+        <v>0.01254945234043817</v>
+      </c>
+      <c r="T15">
+        <v>0.009785955314651136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.1339025</v>
+      </c>
+      <c r="H16">
+        <v>0.267805</v>
+      </c>
+      <c r="I16">
+        <v>0.1070661685619672</v>
+      </c>
+      <c r="J16">
+        <v>0.07401909258930149</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.819313</v>
+      </c>
+      <c r="N16">
+        <v>3.638626</v>
+      </c>
+      <c r="O16">
+        <v>0.3402899442387109</v>
+      </c>
+      <c r="P16">
+        <v>0.2558849928033299</v>
+      </c>
+      <c r="Q16">
+        <v>0.2436105589825</v>
+      </c>
+      <c r="R16">
+        <v>0.97444223593</v>
+      </c>
+      <c r="S16">
+        <v>0.03643354052980425</v>
+      </c>
+      <c r="T16">
+        <v>0.01894037497452242</v>
       </c>
     </row>
   </sheetData>
